--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="205">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -487,6 +487,12 @@
   <si>
     <t xml:space="preserve">instant
 </t>
+  </si>
+  <si>
+    <t>When to automatically disable the subscription</t>
+  </si>
+  <si>
+    <t>The time for the server to turn the subscription off.</t>
   </si>
   <si>
     <t>The server is permitted to deviate from this time but should observe it.</t>
@@ -2288,13 +2294,13 @@
         <v>151</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2362,12 +2368,12 @@
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2393,10 +2399,10 @@
         <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2447,7 +2453,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>81</v>
@@ -2465,12 +2471,12 @@
         <v>75</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2496,13 +2502,13 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2552,7 +2558,7 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>81</v>
@@ -2575,7 +2581,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2601,10 +2607,10 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2655,7 +2661,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -2678,7 +2684,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2701,13 +2707,13 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2758,7 +2764,7 @@
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>81</v>
@@ -2781,7 +2787,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2807,10 +2813,10 @@
         <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2861,7 +2867,7 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
@@ -2876,7 +2882,7 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
@@ -2884,7 +2890,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2913,7 +2919,7 @@
         <v>127</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>129</v>
@@ -2966,7 +2972,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -2981,7 +2987,7 @@
         <v>131</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>75</v>
@@ -2989,11 +2995,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3015,10 +3021,10 @@
         <v>126</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>129</v>
@@ -3073,7 +3079,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -3096,7 +3102,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3122,10 +3128,10 @@
         <v>101</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3137,7 +3143,7 @@
         <v>75</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>75</v>
@@ -3155,10 +3161,10 @@
         <v>141</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>75</v>
@@ -3176,7 +3182,7 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>81</v>
@@ -3199,7 +3205,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3222,16 +3228,16 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3281,7 +3287,7 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -3304,7 +3310,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3330,13 +3336,13 @@
         <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3365,10 +3371,10 @@
         <v>141</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>75</v>
@@ -3386,7 +3392,7 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3409,7 +3415,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3435,13 +3441,13 @@
         <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3491,7 +3497,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-subscription.xlsx
+++ b/StructureDefinition-openimis-subscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
